--- a/biology/Botanique/Sixalix_cartenniana/Sixalix_cartenniana.xlsx
+++ b/biology/Botanique/Sixalix_cartenniana/Sixalix_cartenniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scabiosa cartenniana A.Pons et Quézel 1954, ou Sixalix cartenniana (A.Pons &amp; Quézel) Greuter &amp; Burdet 1985, est une plante vivace de la famille des Caprifoliaceae (anciennement la famille des Dipsacaceae). Espèce endémique des rochers du Cap Ténès, affine du Sixalix farinosa, elle est en danger d'extinction.
 Deux autres espèces protégées par décret sont également présentes au Cap Ténès, Limonium letourneuxii, une autre endémique stricte de ce massif et Euphorbia dendroides, espèce très rare en Algérie.
